--- a/biology/Zoologie/Adelotypa/Adelotypa.xlsx
+++ b/biology/Zoologie/Adelotypa/Adelotypa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelotypa est un genre de lépidoptères (papillons) de la famille des Riodinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Adelotypa a été décrit par William Warren (en) en 1895.
 </t>
@@ -542,19 +556,21 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adelotypa argiella (Bates, 1868) ; présent au Brésil
 Adelotypa asemna (Stichel, 1910) ; présent en Bolivie et au Brésil
 Adelotypa bolena (Butler, 1867) ; présent au Brésil et au Paraguay
-Adelotypa borsippa (Hewitson, [1863]) ; présent au Brésil
+Adelotypa borsippa (Hewitson, ) ; présent au Brésil
 Adelotypa curulis (Hewitson, 1874) ; présent en  Équateur et en Bolivie
 Adelotypa densemaculata (Hewitson, 1870) ; présent à Panama, au Nicaragua, en Colombie, en  Équateur et au Pérou
-Adelotypa glauca (Godman &amp; Salvin, [1886]) ; présent au Costa Rica et au Venezuela
+Adelotypa glauca (Godman &amp; Salvin, ) ; présent au Costa Rica et au Venezuela
 Adelotypa eudocia (Godman &amp; Salvin, 1897) ; présent au Mexique et au Costa Rica
 Adelotypa malca (Schaus, 1902) ; présent au Brésil
 Adelotypa mollis (Butler, 1877) ; présent au Brésil
-Adelotypa penthea (Cramer, [1777]) ; présent en Guyane, en Guyana, au Surinam, au Brésil et au Pérou
+Adelotypa penthea (Cramer, ) ; présent en Guyane, en Guyana, au Surinam, au Brésil et au Pérou
 Adelotypa sejuncta (Stichel, 1910) ; présent au Brésil
 Adelotypa tinea (Bates, 1868) ; présent au Brésil
 Adelotypa trinitatis (Lathy, 1932) ; présent en  Équateur et à Trinité-et-Tobago
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) William Warren, « New species and genera of Geometridae in the Tring Museum », Novitates Zoologicae, Londres, Walter Rothschild Zoological Museum, vol. 2,‎ 1895, p. 82-92 (ISSN 0950-7655, lire en ligne)
 </t>
